--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_172.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_172.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:01:39.600000', '0:01:51.620000'), ('0:00:46.520000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:28.140000', '0:00:36.100000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4512820512820513</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(64.22, 66.98), (16.82, 23.18)]</t>
+          <t>[('0:00:17.016000', '0:00:24.727000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:09.370997', '0:00:22.141972')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.12, 35.88)]</t>
+          <t>[('0:00:38.620000', '0:00:46.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -708,88 +714,86 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1107692307692308</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.8, 11.86)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(10.937548, 16.810929)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -798,133 +802,140 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.9, 101.9)]</t>
+          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.400000', '0:00:41.700000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -933,270 +944,226 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[('0:00:37.540000', '0:00:42.720000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08363903154805576</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(52.750498, 59.809365)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
